--- a/Pedometer/src/test/resources/AccelerationFilter-60-40ms.xlsx
+++ b/Pedometer/src/test/resources/AccelerationFilter-60-40ms.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="AccelerationFilter-60-40ms" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -5395,11 +5395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="380912128"/>
-        <c:axId val="339432512"/>
+        <c:axId val="157984768"/>
+        <c:axId val="130834432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="380912128"/>
+        <c:axId val="157984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,7 +5409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339432512"/>
+        <c:crossAx val="130834432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5417,7 +5417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339432512"/>
+        <c:axId val="130834432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5428,7 +5428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="380912128"/>
+        <c:crossAx val="157984768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8658,11 +8658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="300934144"/>
-        <c:axId val="188910400"/>
+        <c:axId val="157986816"/>
+        <c:axId val="162968064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="300934144"/>
+        <c:axId val="157986816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8672,7 +8672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188910400"/>
+        <c:crossAx val="162968064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8680,7 +8680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188910400"/>
+        <c:axId val="162968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8691,7 +8691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300934144"/>
+        <c:crossAx val="157986816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9067,7 +9067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
